--- a/docs/职教圈框架开发计划-安卓-20191227.xlsx
+++ b/docs/职教圈框架开发计划-安卓-20191227.xlsx
@@ -376,6 +376,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -400,10 +404,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:F54"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -701,28 +701,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="66.95" customHeight="1">
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
     </row>
     <row r="2" spans="1:22" ht="24" customHeight="1">
       <c r="C2" s="2" t="s">
@@ -751,7 +751,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="18">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3">
@@ -760,117 +760,117 @@
       <c r="C3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="24">
         <v>3</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="19">
         <v>43767</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="19">
         <v>43769</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="17">
         <v>3</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="18">
-      <c r="A4" s="21"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:22" ht="18">
-      <c r="A5" s="21"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:22" ht="18">
-      <c r="A6" s="21"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:22" ht="18">
-      <c r="A7" s="21"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:22" ht="18">
-      <c r="A8" s="21"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:22" ht="18">
-      <c r="A9" s="21"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="3">
         <v>7</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:22" ht="18">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="3">
@@ -899,49 +899,49 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="18">
-      <c r="A11" s="21"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="3">
         <v>9</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="24">
         <v>1</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="19">
         <v>43766</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="19">
         <v>43767</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="17">
         <v>1</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="18">
-      <c r="A12" s="21"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="3">
         <v>10</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:22" ht="18">
-      <c r="A13" s="21"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -968,170 +968,170 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="18">
-      <c r="A14" s="21"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="3">
         <v>12</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="24">
         <v>5</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="19">
         <v>43768</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="19">
         <v>43774</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="18">
         <v>5</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="18">
-      <c r="A15" s="21"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="3">
         <v>13</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="15"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:22" ht="18">
-      <c r="A16" s="21"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="3">
         <v>14</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="15"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:9" ht="18">
-      <c r="A17" s="21"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="3">
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="15"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:9" ht="18">
-      <c r="A18" s="21"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="3">
         <v>16</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="24">
         <v>1</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="19">
         <v>43775</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="19">
         <v>43775</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="17">
         <v>1</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18">
-      <c r="A19" s="21"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="3">
         <v>17</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9" ht="18">
-      <c r="A20" s="21"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="3">
         <v>18</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="18">
-      <c r="A21" s="21"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="3">
         <v>19</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:9" ht="18">
-      <c r="A22" s="21"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="3">
         <v>20</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" ht="18">
-      <c r="A23" s="21"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="3">
         <v>21</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="16" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="9">
@@ -1149,7 +1149,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="18">
-      <c r="A24" s="21"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="3">
         <v>22</v>
       </c>
@@ -1176,7 +1176,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="18">
-      <c r="A25" s="21"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="3">
         <v>23</v>
       </c>
@@ -1203,49 +1203,49 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="18">
-      <c r="A26" s="21"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="3">
         <v>24</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="24">
         <v>0.5</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="20">
         <v>43777.5</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="20">
         <v>43777.75</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="17">
         <v>0.5</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18">
-      <c r="A27" s="21"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="3">
         <v>25</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
     </row>
     <row r="28" spans="1:9" ht="18">
-      <c r="A28" s="21"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="3">
         <v>26</v>
       </c>
@@ -1272,7 +1272,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="18">
-      <c r="A29" s="21"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="3">
         <v>27</v>
       </c>
@@ -1299,265 +1299,265 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="18">
-      <c r="A30" s="21"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="3">
         <v>28</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="24">
         <v>1</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="19">
         <v>43783</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="19">
         <v>43783</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="17">
         <v>1</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="I30" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18">
-      <c r="A31" s="21"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="3">
         <v>29</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
     </row>
     <row r="32" spans="1:9" ht="18">
-      <c r="A32" s="21"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="3">
         <v>30</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
     </row>
     <row r="33" spans="1:9" ht="18">
-      <c r="A33" s="21"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="3">
         <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="24">
         <v>1</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="19">
         <v>43784</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="20">
         <v>43784.75</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="17">
         <v>1</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="I33" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18">
-      <c r="A34" s="21"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="3">
         <v>32</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" ht="18">
-      <c r="A35" s="21"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="3">
         <v>33</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
     </row>
     <row r="36" spans="1:9" ht="18">
-      <c r="A36" s="21"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="3">
         <v>34</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" ht="18">
-      <c r="A37" s="21"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="3">
         <v>35</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="24">
         <v>2</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="19">
         <v>43783</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="20">
         <v>43784.75</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="17">
         <v>2</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="I37" s="15" t="s">
+      <c r="I37" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18">
-      <c r="A38" s="21"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="3">
         <v>36</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
     </row>
     <row r="39" spans="1:9" ht="18">
-      <c r="A39" s="21"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="3">
         <v>37</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
     </row>
     <row r="40" spans="1:9" ht="18">
-      <c r="A40" s="21"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="3">
         <v>38</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" ht="18">
-      <c r="A41" s="21"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="3">
         <v>39</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
     </row>
     <row r="42" spans="1:9" ht="18">
-      <c r="A42" s="21"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="3">
         <v>40</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9" ht="18">
-      <c r="A43" s="21"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="3">
         <v>41</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
     </row>
     <row r="44" spans="1:9" ht="18">
-      <c r="A44" s="21"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="3">
         <v>42</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" s="1" customFormat="1" ht="45.95" customHeight="1">
       <c r="A45" s="3" t="s">
@@ -1566,7 +1566,7 @@
       <c r="B45" s="3">
         <v>43</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="15" t="s">
         <v>57</v>
       </c>
       <c r="D45" s="11">
@@ -1589,7 +1589,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="18">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B46" s="3">
@@ -1598,87 +1598,87 @@
       <c r="C46" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="24">
         <v>3</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="19">
         <v>43775</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="20">
         <v>43777.75</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="17">
         <v>3</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="H46" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="15" t="s">
+      <c r="I46" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18">
-      <c r="A47" s="21"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="3">
         <v>45</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
     </row>
     <row r="48" spans="1:9" ht="18">
-      <c r="A48" s="21"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="3">
         <v>46</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
     </row>
     <row r="49" spans="1:9" ht="18">
-      <c r="A49" s="21"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="3">
         <v>47</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
     </row>
     <row r="50" spans="1:9" ht="18">
-      <c r="A50" s="21"/>
+      <c r="A50" s="23"/>
       <c r="B50" s="3">
         <v>48</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
     </row>
     <row r="51" spans="1:9" ht="18">
-      <c r="A51" s="21"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="3">
         <v>49</v>
       </c>
@@ -1694,9 +1694,9 @@
       <c r="F51" s="6">
         <v>43780</v>
       </c>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
     </row>
     <row r="52" spans="1:9" ht="18">
       <c r="A52" s="3" t="s">
@@ -1738,13 +1738,13 @@
       <c r="A54" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="59">

--- a/docs/职教圈框架开发计划-安卓-20191227.xlsx
+++ b/docs/职教圈框架开发计划-安卓-20191227.xlsx
@@ -160,28 +160,13 @@
     <t>全国</t>
   </si>
   <si>
-    <t>师资情况</t>
-  </si>
-  <si>
-    <t>骨干名师</t>
-  </si>
-  <si>
     <t>校企合作</t>
   </si>
   <si>
     <t>学校荣誉</t>
   </si>
   <si>
-    <t>技能大赛</t>
-  </si>
-  <si>
     <t>助奖学金</t>
-  </si>
-  <si>
-    <t>就业创业</t>
-  </si>
-  <si>
-    <t>双高计划</t>
   </si>
   <si>
     <t>资讯</t>
@@ -228,6 +213,26 @@
   </si>
   <si>
     <t>UI已经都开发完，标黄的表示对接完成的</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>就业创业(接口数据太少)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能大赛（接口无数据）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨干名师（无接口）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>师资情况</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双高计划</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -301,7 +306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +322,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,7 +347,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -380,30 +391,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -684,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -701,28 +713,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="66.95" customHeight="1">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
     </row>
     <row r="2" spans="1:22" ht="24" customHeight="1">
       <c r="C2" s="2" t="s">
@@ -751,7 +763,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="18">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3">
@@ -760,117 +772,117 @@
       <c r="C3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="21">
         <v>3</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="22">
         <v>43767</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="22">
         <v>43769</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="19">
         <v>3</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="18">
-      <c r="A4" s="23"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:22" ht="18">
-      <c r="A5" s="23"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:22" ht="18">
-      <c r="A6" s="23"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:22" ht="18">
-      <c r="A7" s="23"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:22" ht="18">
-      <c r="A8" s="23"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:22" ht="18">
-      <c r="A9" s="23"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="3">
         <v>7</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:22" ht="18">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="3">
@@ -892,56 +904,56 @@
         <v>0.5</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="18">
-      <c r="A11" s="23"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="3">
         <v>9</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="21">
         <v>1</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="22">
         <v>43766</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="22">
         <v>43767</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="19">
         <v>1</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="18">
-      <c r="A12" s="23"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="3">
         <v>10</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:22" ht="18">
-      <c r="A13" s="23"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -968,166 +980,166 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="18">
-      <c r="A14" s="23"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="3">
         <v>12</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="21">
         <v>5</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="22">
         <v>43768</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="22">
         <v>43774</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="24">
         <v>5</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="18">
-      <c r="A15" s="23"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="3">
         <v>13</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="17"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:22" ht="18">
-      <c r="A16" s="23"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="3">
         <v>14</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="17"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" ht="18">
-      <c r="A17" s="23"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="3">
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="17"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" ht="18">
-      <c r="A18" s="23"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="3">
         <v>16</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="21">
         <v>1</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="22">
         <v>43775</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="22">
         <v>43775</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="19">
         <v>1</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18">
-      <c r="A19" s="23"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="3">
         <v>17</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9" ht="18">
-      <c r="A20" s="23"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="3">
         <v>18</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
     </row>
     <row r="21" spans="1:9" ht="18">
-      <c r="A21" s="23"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="3">
         <v>19</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9" ht="18">
-      <c r="A22" s="23"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="3">
         <v>20</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
     </row>
     <row r="23" spans="1:9" ht="18">
-      <c r="A23" s="23"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="3">
         <v>21</v>
       </c>
@@ -1149,7 +1161,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="18">
-      <c r="A24" s="23"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="3">
         <v>22</v>
       </c>
@@ -1176,7 +1188,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="18">
-      <c r="A25" s="23"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="3">
         <v>23</v>
       </c>
@@ -1203,49 +1215,49 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="18">
-      <c r="A26" s="23"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="3">
         <v>24</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="21">
         <v>0.5</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="23">
         <v>43777.5</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="23">
         <v>43777.75</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="19">
         <v>0.5</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18">
-      <c r="A27" s="23"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="3">
         <v>25</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
     </row>
     <row r="28" spans="1:9" ht="18">
-      <c r="A28" s="23"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="3">
         <v>26</v>
       </c>
@@ -1272,7 +1284,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="18">
-      <c r="A29" s="23"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="3">
         <v>27</v>
       </c>
@@ -1299,275 +1311,275 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="18">
-      <c r="A30" s="23"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="3">
         <v>28</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="21">
         <v>1</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="22">
         <v>43783</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="22">
         <v>43783</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="19">
         <v>1</v>
       </c>
-      <c r="H30" s="17" t="s">
+      <c r="H30" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="17" t="s">
+      <c r="I30" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18">
-      <c r="A31" s="23"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="3">
         <v>29</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" ht="18">
-      <c r="A32" s="23"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="3">
         <v>30</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
     </row>
     <row r="33" spans="1:9" ht="18">
-      <c r="A33" s="23"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="3">
         <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="21">
         <v>1</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="22">
         <v>43784</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="23">
         <v>43784.75</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="19">
         <v>1</v>
       </c>
-      <c r="H33" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="I33" s="17" t="s">
+      <c r="H33" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18">
-      <c r="A34" s="23"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="3">
         <v>32</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
     </row>
     <row r="35" spans="1:9" ht="18">
-      <c r="A35" s="23"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="3">
         <v>33</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
     </row>
     <row r="36" spans="1:9" ht="18">
-      <c r="A36" s="23"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="3">
         <v>34</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
     </row>
     <row r="37" spans="1:9" ht="18">
-      <c r="A37" s="23"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="3">
         <v>35</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="24">
+      <c r="C37" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="21">
         <v>2</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="22">
         <v>43783</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="23">
         <v>43784.75</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="19">
         <v>2</v>
       </c>
-      <c r="H37" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="I37" s="17" t="s">
+      <c r="H37" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18">
-      <c r="A38" s="23"/>
+      <c r="A38" s="20"/>
       <c r="B38" s="3">
         <v>36</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+      <c r="C38" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
     </row>
     <row r="39" spans="1:9" ht="18">
-      <c r="A39" s="23"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="3">
         <v>37</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
+        <v>48</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
     </row>
     <row r="40" spans="1:9" ht="18">
-      <c r="A40" s="23"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="3">
         <v>38</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
+        <v>49</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
     </row>
     <row r="41" spans="1:9" ht="18">
-      <c r="A41" s="23"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="3">
         <v>39</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
+      <c r="C41" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
     </row>
     <row r="42" spans="1:9" ht="18">
-      <c r="A42" s="23"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="3">
         <v>40</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
     </row>
     <row r="43" spans="1:9" ht="18">
-      <c r="A43" s="23"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="3">
         <v>41</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
+      <c r="C43" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
     </row>
     <row r="44" spans="1:9" ht="18">
-      <c r="A44" s="23"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="3">
         <v>42</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
+        <v>70</v>
+      </c>
+      <c r="D44" s="21"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
     </row>
     <row r="45" spans="1:9" s="1" customFormat="1" ht="45.95" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B45" s="3">
         <v>43</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D45" s="11">
         <v>2</v>
@@ -1589,101 +1601,101 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="18">
-      <c r="A46" s="23" t="s">
-        <v>58</v>
+      <c r="A46" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="B46" s="3">
         <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D46" s="24">
+        <v>54</v>
+      </c>
+      <c r="D46" s="21">
         <v>3</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="22">
         <v>43775</v>
       </c>
-      <c r="F46" s="20">
+      <c r="F46" s="23">
         <v>43777.75</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="19">
         <v>3</v>
       </c>
-      <c r="H46" s="17" t="s">
+      <c r="H46" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="17" t="s">
+      <c r="I46" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18">
-      <c r="A47" s="23"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="3">
         <v>45</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="D47" s="21"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
     </row>
     <row r="48" spans="1:9" ht="18">
-      <c r="A48" s="23"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="3">
         <v>46</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
+        <v>56</v>
+      </c>
+      <c r="D48" s="21"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
     </row>
     <row r="49" spans="1:9" ht="18">
-      <c r="A49" s="23"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="3">
         <v>47</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
+        <v>57</v>
+      </c>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
     </row>
     <row r="50" spans="1:9" ht="18">
-      <c r="A50" s="23"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="3">
         <v>48</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
+        <v>58</v>
+      </c>
+      <c r="D50" s="21"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
     </row>
     <row r="51" spans="1:9" ht="18">
-      <c r="A51" s="23"/>
+      <c r="A51" s="20"/>
       <c r="B51" s="3">
         <v>49</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D51" s="5">
         <v>1</v>
@@ -1694,19 +1706,19 @@
       <c r="F51" s="6">
         <v>43780</v>
       </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
     </row>
     <row r="52" spans="1:9" ht="18">
       <c r="A52" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B52" s="3">
         <v>50</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D52" s="5">
         <v>1</v>
@@ -1730,24 +1742,67 @@
     <row r="53" spans="1:9" ht="18">
       <c r="C53" s="4"/>
       <c r="D53" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:9" ht="48.95" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
+        <v>63</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="I37:I44"/>
+    <mergeCell ref="I46:I51"/>
+    <mergeCell ref="G37:G44"/>
+    <mergeCell ref="H37:H44"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="G46:G51"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="H46:H51"/>
+    <mergeCell ref="I3:I9"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="I18:I22"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="H3:H9"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="H18:H22"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="G3:G9"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="E37:E44"/>
+    <mergeCell ref="E46:E50"/>
+    <mergeCell ref="F3:F9"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F18:F22"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="F37:F44"/>
+    <mergeCell ref="F46:F50"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E33:E36"/>
     <mergeCell ref="C1:V1"/>
     <mergeCell ref="B54:F54"/>
     <mergeCell ref="A3:A9"/>
@@ -1764,49 +1819,6 @@
     <mergeCell ref="D46:D50"/>
     <mergeCell ref="E3:E9"/>
     <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E37:E44"/>
-    <mergeCell ref="E46:E50"/>
-    <mergeCell ref="F3:F9"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F18:F22"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="F37:F44"/>
-    <mergeCell ref="F46:F50"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="G3:G9"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="G18:G22"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H3:H9"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="H18:H22"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I3:I9"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="I18:I22"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="I37:I44"/>
-    <mergeCell ref="I46:I51"/>
-    <mergeCell ref="G37:G44"/>
-    <mergeCell ref="H37:H44"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="G46:G51"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="H46:H51"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
